--- a/data/trans_camb/P5_7-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,44</t>
+          <t>-1,39; 2,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 3,73</t>
+          <t>-4,89; 3,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,21</t>
+          <t>-2,12; 1,97</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>-0,14%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,41</t>
+          <t>-1,4; 2,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 3,89</t>
+          <t>-4,98; 3,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,26</t>
+          <t>-2,13; 2,02</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-1,96</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 3,03</t>
+          <t>-19,59; 2,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,22</t>
+          <t>-2,62; 1,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 1,73</t>
+          <t>-11,06; 1,38</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>-2,02%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 3,21</t>
+          <t>-20,53; 2,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,23</t>
+          <t>-2,63; 1,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 1,81</t>
+          <t>-11,48; 1,42</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 2,83</t>
+          <t>-1,4; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,36</t>
+          <t>-3,55; 2,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,21</t>
+          <t>-2,01; 1,95</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,23%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,94</t>
+          <t>-1,42; 3,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 3,59</t>
+          <t>-3,65; 3,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,32</t>
+          <t>-2,06; 2,04</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,49</t>
+          <t>-2,85; 3,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,61</t>
+          <t>-1,92; 2,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,08</t>
+          <t>-1,57; 2,14</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,69</t>
+          <t>-2,9; 3,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,69</t>
+          <t>-1,96; 2,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,18</t>
+          <t>-1,6; 2,22</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,66</t>
+          <t>-3,5; 1,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,05</t>
+          <t>-5,1; 1,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 0,95</t>
+          <t>-3,03; 0,95</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-1,05%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,67</t>
+          <t>-3,54; 1,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 2,08</t>
+          <t>-5,18; 1,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,98</t>
+          <t>-3,07; 0,97</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,0</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,84</t>
+          <t>-2,76; 2,85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,54</t>
+          <t>-2,64; 1,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,24</t>
+          <t>-1,96; 1,77</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>-0,0%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,96</t>
+          <t>-2,78; 2,94</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 1,58</t>
+          <t>-2,64; 1,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,26</t>
+          <t>-1,99; 1,81</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,07</t>
+          <t>-3,03; 0,89</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,71</t>
+          <t>-1,52; 0,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,55</t>
+          <t>-1,69; 0,54</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-0,39%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,1</t>
+          <t>-3,14; 0,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,73</t>
+          <t>-1,54; 0,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,57</t>
+          <t>-1,73; 0,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_7-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.4735829683641057</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.6923200849286215</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1100973926339233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 2,15</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 3,38</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 1,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.283377510627273</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.851326430401145</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.134339813305443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,73%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,14%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.152218220769262</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.391360608317458</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.966746210859627</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 2,2</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 3,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 2,02</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.004786439017677496</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.0070491603655305</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.00111664472600605</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.01291427417733827</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.04867133588959757</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.02140299557740008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-19,59; 2,76</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,62; 1,34</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,06; 1,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.02196538579937008</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.03543854440650345</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.02012313395524118</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,72%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,19%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,02%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.037813327050443</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.006584456300996</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.119825178258428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-20,53; 2,94</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 1,36</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-11,48; 1,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.45135794316204</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.985606614680212</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.390038885324845</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.785454372861536</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.864700678911956</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.055166790704301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 3,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 2,83</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 1,95</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.03212760545428184</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.01015379916453787</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.02191035454916532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,34%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1638731989696284</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.06010343822399906</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.09648980166421348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 3,29</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,65; 3,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 2,04</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.02963790523012802</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.008737842139090405</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01064586434029183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.8006658984785031</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.2965267094283353</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2518560551344584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 3,43</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 2,39</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 2,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.435096122056799</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-3.76135779607604</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-1.997332169575721</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.181755687705676</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.909682964422499</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.032651503151383</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-2,9; 3,6</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 2,49</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 2,22</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.008174621400242168</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.00309650116268618</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.00260077163016176</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.01447637981746117</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.03902312113675498</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.02015362738558465</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 1,9</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 1,73</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,03; 0,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.03309469926410126</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.03034357615578256</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.02143640487958336</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,67%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-1,41%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-1,05%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.1166955607154185</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2946284404683697</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2022446601533168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 1,94</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 1,81</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-3,07; 0,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.063522130561938</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.819993439741329</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.65562869096374</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.221528306260041</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.430275392111389</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.148625157093467</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 2,85</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 1,86</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 1,77</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.001204660781876706</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.003010399809406657</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.002076555727378648</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,13%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.03140023682909016</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.01850916727482775</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.01685035811252895</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 2,94</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 1,91</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 1,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.03382600580362704</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.02542916061982385</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.0222139798928418</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-0.9447464186492893</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-1.08277295976118</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-1.021163653819823</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-3,03; 0,89</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 0,76</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 0,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-3.925458761190574</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-4.55863248834727</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-3.010985138957365</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>1.899318384037088</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>1.910632204355613</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>0.9609672736676632</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 0,92</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 0,79</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 0,55</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.009627896139363891</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.01111367029604931</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.01044350259757265</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.03972354855605698</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.04651873393195319</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.03061193049877875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.01932221093128839</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.01963450593841885</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.009917921778006409</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.3468433946952953</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-0.5922383367858441</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-0.1883207484140392</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-2.245749547554082</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-3.961203103260683</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-2.39431064552893</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>2.9682882671624</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>1.569184995415</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>1.514068692715554</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.003536115578903918</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.006020433217344155</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.001916765150748031</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.02326612626966628</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.03990490923163161</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.02423045456686055</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.03068793449735156</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.01603348657866415</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.01553360666365981</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-0.3418611308804831</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.519290561152197</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-0.4326260794511372</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-2.325027077887751</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-1.859212012766129</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-1.573044836502627</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.9000752162130855</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>0.6114434753433716</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0.4982505837896985</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.003510231580937827</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.005313507325978206</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.00443427860977205</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.02389074316132602</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.0189117736576782</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.01606917216771555</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.009279529546888864</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.006321557308351007</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.005127068096086879</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
